--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my telegram bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A4AEA-5B25-43A9-BC8B-C486649AD3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2AF020-FD9B-4530-99D8-F9B989E0DFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB6AC010-35E9-422C-A64D-9803F95BFCD7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -490,166 +490,163 @@
     <t>Zeniya benti</t>
   </si>
   <si>
-    <t>SU0248/12</t>
-  </si>
-  <si>
     <t>Abu Washo</t>
   </si>
   <si>
-    <t>SU0249/12</t>
-  </si>
-  <si>
     <t>Ahmed Kediro</t>
   </si>
   <si>
-    <t>SU0251/12</t>
-  </si>
-  <si>
     <t>Aman Husen</t>
   </si>
   <si>
-    <t>SU0253/12</t>
-  </si>
-  <si>
     <t>Bekele Wako</t>
   </si>
   <si>
-    <t>SU0255/12</t>
-  </si>
-  <si>
     <t>Dejenen Hurisa</t>
   </si>
   <si>
-    <t>SU0256/12</t>
-  </si>
-  <si>
     <t>Desta Beriso</t>
   </si>
   <si>
-    <t>SU0257/12</t>
-  </si>
-  <si>
     <t>Dube Jara</t>
   </si>
   <si>
-    <t>SU0258/12</t>
-  </si>
-  <si>
     <t>Fano Bushure</t>
   </si>
   <si>
-    <t>SU0259/12</t>
-  </si>
-  <si>
     <t>Galgalo Goljo</t>
   </si>
   <si>
-    <t>SU0260/12</t>
-  </si>
-  <si>
     <t>Gemada Boneya</t>
   </si>
   <si>
-    <t>SU0261/12</t>
-  </si>
-  <si>
     <t>Gemeda Ansha</t>
   </si>
   <si>
-    <t>SU0262/12</t>
-  </si>
-  <si>
     <t>Guye Tadese</t>
   </si>
   <si>
-    <t>SU0263/12</t>
-  </si>
-  <si>
     <t>Hirpo Abdi</t>
   </si>
   <si>
-    <t>SU0264/12</t>
-  </si>
-  <si>
     <t>Ifa Jorgo</t>
   </si>
   <si>
-    <t>SU0265/12</t>
-  </si>
-  <si>
     <t>Kajela Turbe</t>
   </si>
   <si>
-    <t>SU0266/12</t>
-  </si>
-  <si>
     <t>Ketema Boja</t>
   </si>
   <si>
-    <t>SU0267/12</t>
-  </si>
-  <si>
     <t>Lalise Tola</t>
   </si>
   <si>
-    <t>SU0268/12</t>
-  </si>
-  <si>
     <t>Magada Godana</t>
   </si>
   <si>
-    <t>SU0269/12</t>
-  </si>
-  <si>
     <t>Megersa Itana</t>
   </si>
   <si>
-    <t>SU0272/12</t>
-  </si>
-  <si>
     <t>Mustafa Wabe</t>
   </si>
   <si>
-    <t>SU0274/12</t>
-  </si>
-  <si>
     <t>Nura Magerso</t>
   </si>
   <si>
-    <t>SU0275/12</t>
-  </si>
-  <si>
     <t>Paulos Hindesa</t>
   </si>
   <si>
-    <t>SU0276/12</t>
-  </si>
-  <si>
     <t>Shimelis Nenko</t>
   </si>
   <si>
-    <t>SU0278/12</t>
-  </si>
-  <si>
     <t>Tafeses Legese</t>
   </si>
   <si>
-    <t>SU0279/12</t>
-  </si>
-  <si>
     <t>Telile Tola</t>
   </si>
   <si>
-    <t>SU0280/12</t>
-  </si>
-  <si>
     <t>Tibeso Dibo</t>
   </si>
   <si>
-    <t>SU0281/12</t>
-  </si>
-  <si>
     <t>Umer Hasen</t>
+  </si>
+  <si>
+    <t>SU0248</t>
+  </si>
+  <si>
+    <t>SU0249</t>
+  </si>
+  <si>
+    <t>SU0251</t>
+  </si>
+  <si>
+    <t>SU0253</t>
+  </si>
+  <si>
+    <t>SU0255</t>
+  </si>
+  <si>
+    <t>SU0256</t>
+  </si>
+  <si>
+    <t>SU0257</t>
+  </si>
+  <si>
+    <t>SU0259</t>
+  </si>
+  <si>
+    <t>SU0260</t>
+  </si>
+  <si>
+    <t>SU0261</t>
+  </si>
+  <si>
+    <t>SU0262</t>
+  </si>
+  <si>
+    <t>SU0263</t>
+  </si>
+  <si>
+    <t>SU0264</t>
+  </si>
+  <si>
+    <t>SU0265</t>
+  </si>
+  <si>
+    <t>SU0266</t>
+  </si>
+  <si>
+    <t>SU0267</t>
+  </si>
+  <si>
+    <t>SU0268</t>
+  </si>
+  <si>
+    <t>SU0269</t>
+  </si>
+  <si>
+    <t>SU0272</t>
+  </si>
+  <si>
+    <t>SU0274</t>
+  </si>
+  <si>
+    <t>SU0275</t>
+  </si>
+  <si>
+    <t>SU0276</t>
+  </si>
+  <si>
+    <t>SU0278</t>
+  </si>
+  <si>
+    <t>SU0279</t>
+  </si>
+  <si>
+    <t>SU0280</t>
+  </si>
+  <si>
+    <t>SU0281</t>
   </si>
 </sst>
 </file>
@@ -1530,11 +1527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD17F1-8A3B-4CE3-AC57-6BEDB475DE8C}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3781,10 +3781,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
         <v>156</v>
-      </c>
-      <c r="C71" t="s">
-        <v>157</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -3813,10 +3813,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -3845,10 +3845,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3877,10 +3877,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -3909,10 +3909,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -3941,10 +3941,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -3973,10 +3973,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -4005,10 +4005,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -4037,10 +4037,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -4069,10 +4069,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -4101,10 +4101,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -4133,10 +4133,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -4165,10 +4165,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -4197,10 +4197,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -4229,10 +4229,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -4261,10 +4261,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -4293,10 +4293,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -4325,10 +4325,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -4357,10 +4357,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -4389,10 +4389,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -4421,10 +4421,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -4453,10 +4453,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -4485,10 +4485,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -4517,10 +4517,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -4549,10 +4549,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -4581,10 +4581,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -4616,7 +4616,7 @@
         <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D97">
         <v>5</v>
